--- a/test_docs/testsuite/info_page/good/list_valid_gap.xlsx
+++ b/test_docs/testsuite/info_page/good/list_valid_gap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Nom source</t>
   </si>
@@ -56,10 +56,19 @@
     <t>n2:s1</t>
   </si>
   <si>
+    <t>o2</t>
+  </si>
+  <si>
     <t>n3</t>
   </si>
   <si>
+    <t>o3</t>
+  </si>
+  <si>
     <t>n4:s1</t>
+  </si>
+  <si>
+    <t>o4</t>
   </si>
 </sst>
 </file>
@@ -733,7 +742,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="15"/>
@@ -741,11 +750,11 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="15"/>
@@ -753,11 +762,11 @@
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="15"/>
